--- a/2018-01/SmartSeq2/Q4DemoSS2Metadata_INVALID_2.xlsx
+++ b/2018-01/SmartSeq2/Q4DemoSS2Metadata_INVALID_2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28908"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="29005"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="5000" windowWidth="25600" windowHeight="13860" activeTab="9"/>
+    <workbookView xWindow="2560" yWindow="5000" windowWidth="25600" windowHeight="13860" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
   <si>
     <t>name</t>
   </si>
@@ -713,7 +713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -921,10 +921,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -939,7 +939,7 @@
     <col min="9" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>47</v>
       </c>
@@ -964,8 +964,11 @@
       <c r="H1" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -989,6 +992,9 @@
       </c>
       <c r="H2" s="3" t="s">
         <v>61</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
